--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1303.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1303.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.007144224538508</v>
+        <v>1.107348918914795</v>
       </c>
       <c r="B1">
-        <v>2.584156660729329</v>
+        <v>2.239099979400635</v>
       </c>
       <c r="C1">
-        <v>5.642080939280525</v>
+        <v>10.05295944213867</v>
       </c>
       <c r="D1">
-        <v>2.176594541369937</v>
+        <v>1.334017992019653</v>
       </c>
       <c r="E1">
-        <v>1.254424782291773</v>
+        <v>1.271888732910156</v>
       </c>
     </row>
   </sheetData>
